--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/114.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/114.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3591254447599498</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.573565802860259</v>
+        <v>-1.765770105723875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005975659827346822</v>
+        <v>-0.1151137218894754</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002535173295995579</v>
+        <v>-0.006536862856139587</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3800375830845417</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.55623368698911</v>
+        <v>-1.726324095875871</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03013652360155219</v>
+        <v>-0.1420002451618833</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03243767830873806</v>
+        <v>-0.009276016615415114</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4090231799717611</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.569955682374588</v>
+        <v>-1.761023093096745</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08987276460293374</v>
+        <v>-0.1848569314342623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03694011274449223</v>
+        <v>-0.03777456023646812</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4346761645583864</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.626340409257239</v>
+        <v>-1.792398632550019</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09103832301619927</v>
+        <v>-0.1301738832397384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03100497463905687</v>
+        <v>-0.0207284971627134</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.44648663600594</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.654327839351177</v>
+        <v>-1.807491729616826</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0414420132657542</v>
+        <v>-0.04840974707692401</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.003994103554776933</v>
+        <v>-0.04131149024093011</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4368075180010956</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.564570692719579</v>
+        <v>-1.583850895232262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1123555845830361</v>
+        <v>0.1529348270484379</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05346476964581191</v>
+        <v>-0.07779572528264544</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4035330891519663</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.253695953543124</v>
+        <v>-1.279158921956002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1935628631679795</v>
+        <v>0.2016577303897797</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0348603592429659</v>
+        <v>-0.03421018380155248</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3471612085820576</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8220642394186749</v>
+        <v>-0.7837423133779177</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2066889660522745</v>
+        <v>0.2150363404342484</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06616697765976697</v>
+        <v>-0.08020308219377002</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2704421496803767</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2059400594674124</v>
+        <v>-0.1466905351660758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2258618225258497</v>
+        <v>0.2500030928322146</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06940443661194566</v>
+        <v>-0.04740642756367346</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1747998714501692</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5620793757418632</v>
+        <v>0.6128735697014414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08450233703798253</v>
+        <v>0.1059099428711626</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.009084501522916226</v>
+        <v>0.0114478681391304</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06280793617153631</v>
       </c>
       <c r="E12" t="n">
-        <v>1.487140576879552</v>
+        <v>1.522551961450867</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08482811068555055</v>
+        <v>-0.1181590558284784</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07068702378896227</v>
+        <v>0.1482420973615383</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.06288719788657346</v>
       </c>
       <c r="E13" t="n">
-        <v>2.392106111559746</v>
+        <v>2.314619349102965</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2611317815063442</v>
+        <v>-0.2146405779212235</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1970613681698064</v>
+        <v>0.2506374103360325</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1972371970270145</v>
       </c>
       <c r="E14" t="n">
-        <v>3.243236997706772</v>
+        <v>3.150885248516288</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5414379062848631</v>
+        <v>-0.4911011528328459</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3439821103882623</v>
+        <v>0.4280358887715889</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3351266363425512</v>
       </c>
       <c r="E15" t="n">
-        <v>4.137026955826911</v>
+        <v>4.078952748669668</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8828373455705281</v>
+        <v>-0.8530707768625159</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5015124227787507</v>
+        <v>0.5738349868655052</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4713968097510116</v>
       </c>
       <c r="E16" t="n">
-        <v>4.900317066108682</v>
+        <v>4.890463187655141</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.262966137909018</v>
+        <v>-1.130434034375726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6666710130733271</v>
+        <v>0.7408465161760421</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5992978340510089</v>
       </c>
       <c r="E17" t="n">
-        <v>5.533495238102497</v>
+        <v>5.489746847800713</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.645694412171808</v>
+        <v>-1.43538400409825</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8853428237044245</v>
+        <v>0.910550235353745</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7168429736543233</v>
       </c>
       <c r="E18" t="n">
-        <v>6.05842224870436</v>
+        <v>6.004565033106153</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.106554135046701</v>
+        <v>-1.785911516232126</v>
       </c>
       <c r="G18" t="n">
-        <v>1.044535169939051</v>
+        <v>1.060350413087129</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8236015364742241</v>
       </c>
       <c r="E19" t="n">
-        <v>6.419919794130227</v>
+        <v>6.346900090709949</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.569365604087188</v>
+        <v>-2.206473779994275</v>
       </c>
       <c r="G19" t="n">
-        <v>1.26596382202905</v>
+        <v>1.258968641787427</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9214793980375235</v>
       </c>
       <c r="E20" t="n">
-        <v>6.673456500406274</v>
+        <v>6.537327084721521</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.960117384852599</v>
+        <v>-2.60724960708204</v>
       </c>
       <c r="G20" t="n">
-        <v>1.464453967387231</v>
+        <v>1.465565242860266</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.012602735881109</v>
       </c>
       <c r="E21" t="n">
-        <v>6.898098824542058</v>
+        <v>6.774111709690005</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.267557050777609</v>
+        <v>-2.894702172430016</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588710667178406</v>
+        <v>1.589759730742413</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.09562285929133</v>
       </c>
       <c r="E22" t="n">
-        <v>7.012107637122512</v>
+        <v>6.856108225630661</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.608776258503295</v>
+        <v>-3.267740941861648</v>
       </c>
       <c r="G22" t="n">
-        <v>1.794285041197016</v>
+        <v>1.740319259718347</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.166276791181179</v>
       </c>
       <c r="E23" t="n">
-        <v>7.045561786242143</v>
+        <v>6.875992859534001</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.890760884984224</v>
+        <v>-3.619215965766853</v>
       </c>
       <c r="G23" t="n">
-        <v>1.878960328749949</v>
+        <v>1.829858054747669</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.22505156848043</v>
       </c>
       <c r="E24" t="n">
-        <v>7.056700157640916</v>
+        <v>6.877667701712351</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.016760738069545</v>
+        <v>-3.757182157569632</v>
       </c>
       <c r="G24" t="n">
-        <v>1.971426743027661</v>
+        <v>1.927607601927374</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.271830761574918</v>
       </c>
       <c r="E25" t="n">
-        <v>7.035964074472835</v>
+        <v>6.838908462546366</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.123219647552873</v>
+        <v>-3.932999416650719</v>
       </c>
       <c r="G25" t="n">
-        <v>2.01066172032151</v>
+        <v>1.99050506179634</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.307448559140227</v>
       </c>
       <c r="E26" t="n">
-        <v>6.899223518269981</v>
+        <v>6.684133771773425</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.149421534865631</v>
+        <v>-3.964715291841618</v>
       </c>
       <c r="G26" t="n">
-        <v>2.046808669228984</v>
+        <v>2.046862952169215</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.330302495780691</v>
       </c>
       <c r="E27" t="n">
-        <v>6.685679310768305</v>
+        <v>6.519845538284568</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.177153713156351</v>
+        <v>-3.988831860360575</v>
       </c>
       <c r="G27" t="n">
-        <v>1.987304198084767</v>
+        <v>1.982013136213977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.339342265361964</v>
       </c>
       <c r="E28" t="n">
-        <v>6.434710370541367</v>
+        <v>6.29824793816711</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.102501557044756</v>
+        <v>-3.925472995499648</v>
       </c>
       <c r="G28" t="n">
-        <v>1.92675310305925</v>
+        <v>1.939610840845776</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.334605163179333</v>
       </c>
       <c r="E29" t="n">
-        <v>6.079075382660402</v>
+        <v>5.992702075943403</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.012669085209581</v>
+        <v>-3.888727714408284</v>
       </c>
       <c r="G29" t="n">
-        <v>1.840596928103172</v>
+        <v>1.889777881872752</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.314688718232764</v>
       </c>
       <c r="E30" t="n">
-        <v>5.834692365900991</v>
+        <v>5.819347981515363</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.902951674510726</v>
+        <v>-3.743309206816659</v>
       </c>
       <c r="G30" t="n">
-        <v>1.739338507270137</v>
+        <v>1.798642314511704</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.279363185557737</v>
       </c>
       <c r="E31" t="n">
-        <v>5.508334790345286</v>
+        <v>5.570412516824703</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.73225256478857</v>
+        <v>-3.616693333847823</v>
       </c>
       <c r="G31" t="n">
-        <v>1.609630336470188</v>
+        <v>1.629785165233327</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.22932336730326</v>
       </c>
       <c r="E32" t="n">
-        <v>5.074267662958582</v>
+        <v>5.152358246885343</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.567932615424522</v>
+        <v>-3.423003874136326</v>
       </c>
       <c r="G32" t="n">
-        <v>1.465829338513298</v>
+        <v>1.481700084442959</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.167055764342407</v>
       </c>
       <c r="E33" t="n">
-        <v>4.670283043190445</v>
+        <v>4.758956970700138</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.397758952365385</v>
+        <v>-3.311330752787478</v>
       </c>
       <c r="G33" t="n">
-        <v>1.31644817628484</v>
+        <v>1.326912585335807</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.094773961111829</v>
       </c>
       <c r="E34" t="n">
-        <v>4.222578089471654</v>
+        <v>4.346488354318436</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.185481245148976</v>
+        <v>-2.984703592292651</v>
       </c>
       <c r="G34" t="n">
-        <v>1.189885366414881</v>
+        <v>1.18757864641542</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.015316158217473</v>
       </c>
       <c r="E35" t="n">
-        <v>3.854643441223388</v>
+        <v>3.996776916050049</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.055698054105787</v>
+        <v>-2.85076470671844</v>
       </c>
       <c r="G35" t="n">
-        <v>1.106818439686533</v>
+        <v>1.116744898700607</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9320163486776721</v>
       </c>
       <c r="E36" t="n">
-        <v>3.467800032154579</v>
+        <v>3.64700570555534</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.926179568636307</v>
+        <v>-2.751122575678786</v>
       </c>
       <c r="G36" t="n">
-        <v>1.018686121737792</v>
+        <v>1.020809255613552</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.84760902620978</v>
       </c>
       <c r="E37" t="n">
-        <v>3.115423240528802</v>
+        <v>3.259309627380437</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.772447232299928</v>
+        <v>-2.598268525116925</v>
       </c>
       <c r="G37" t="n">
-        <v>0.884024785121972</v>
+        <v>0.8995070115805447</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7640855661555022</v>
       </c>
       <c r="E38" t="n">
-        <v>2.72436040021825</v>
+        <v>2.912942994103336</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.650827829515012</v>
+        <v>-2.523731339052898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8008602710853441</v>
+        <v>0.8070247393652367</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.682007797973348</v>
       </c>
       <c r="E39" t="n">
-        <v>2.410398852496773</v>
+        <v>2.609859991572337</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.475582980989053</v>
+        <v>-2.36697745568391</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6785101833296836</v>
+        <v>0.6726561646742558</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6028729339442254</v>
       </c>
       <c r="E40" t="n">
-        <v>2.133387519214047</v>
+        <v>2.362928726225472</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.377074082566797</v>
+        <v>-2.323931694001739</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6141452543124611</v>
+        <v>0.6018602320414017</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5271254203961893</v>
       </c>
       <c r="E41" t="n">
-        <v>1.774296720778628</v>
+        <v>1.956718505907882</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.238495835364902</v>
+        <v>-2.16587075062248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5312021414814927</v>
+        <v>0.5363840275511442</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4545981060821836</v>
       </c>
       <c r="E42" t="n">
-        <v>1.509798520100065</v>
+        <v>1.674477712742718</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.126174063376333</v>
+        <v>-2.068652444352223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4505620891259249</v>
+        <v>0.494675211992405</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3844910450456312</v>
       </c>
       <c r="E43" t="n">
-        <v>1.303117140053158</v>
+        <v>1.46811898073381</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.043369402538986</v>
+        <v>-1.983346498819533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3973263826973242</v>
+        <v>0.4049205050435143</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3175418835002598</v>
       </c>
       <c r="E44" t="n">
-        <v>1.054002358683535</v>
+        <v>1.184424746595956</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.950286358457081</v>
+        <v>-1.956339821173806</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3570075763608939</v>
+        <v>0.4431491132207291</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.253553638202841</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8729693629352367</v>
+        <v>1.027937398562706</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.860562147542028</v>
+        <v>-1.896777407565297</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2935239827215722</v>
+        <v>0.3671054230851347</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1924902209898687</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6863141183886751</v>
+        <v>0.8582910119286179</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.782873501341244</v>
+        <v>-1.844477929375505</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2341146592029276</v>
+        <v>0.322802614888186</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1348190447478484</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4997046178928695</v>
+        <v>0.698963263303753</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.729570703638201</v>
+        <v>-1.801662107788468</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1807124444295747</v>
+        <v>0.241228773976517</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08142979020244372</v>
       </c>
       <c r="E48" t="n">
-        <v>0.345900310916635</v>
+        <v>0.5787417987099434</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614956239825736</v>
+        <v>-1.712413635001278</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1446411256860178</v>
+        <v>0.2248835097603458</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.03268911691981275</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2105509837774432</v>
+        <v>0.4900977573134108</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.542065839588929</v>
+        <v>-1.637116487774023</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08309464011604802</v>
+        <v>0.1573372344932054</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01215164161766516</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1096816923361726</v>
+        <v>0.4092576509758697</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.457605244114212</v>
+        <v>-1.58905595828763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01850221068639844</v>
+        <v>0.1054445733948039</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.05288135782035893</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.04322725108659576</v>
+        <v>0.2472346628804551</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.420659909040875</v>
+        <v>-1.541242446675319</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.003284155887042194</v>
+        <v>0.07110725913524168</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09033775622850612</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1058929410983982</v>
+        <v>0.1939038088262817</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.358372369848656</v>
+        <v>-1.484606432473848</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01657615719541262</v>
+        <v>0.05107502442812847</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1248233105913487</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1606070952474363</v>
+        <v>0.1149501871419223</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.309922101049821</v>
+        <v>-1.429869101339094</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03597102479532412</v>
+        <v>0.05238696380381355</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1578151912817299</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2735979502183977</v>
+        <v>0.02499481629038151</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.286581046671349</v>
+        <v>-1.451803068716307</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09689966071974811</v>
+        <v>-0.04555165878568261</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1898585878109362</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3252027287573742</v>
+        <v>0.008110382195965025</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.25741220022655</v>
+        <v>-1.395998986317921</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08782221128770676</v>
+        <v>-0.01135828580583298</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2212779843061431</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4025577483479769</v>
+        <v>-0.06278679726922923</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.264729418585497</v>
+        <v>-1.430874860535051</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1279946366617176</v>
+        <v>-0.05959874189186713</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2522592096674132</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4362363482766511</v>
+        <v>-0.09520347131771176</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.278306252849908</v>
+        <v>-1.40038980526983</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1444252897726335</v>
+        <v>-0.06247390796205748</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2837534079594446</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4425490272809935</v>
+        <v>-0.08198649025258134</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.251697853406098</v>
+        <v>-1.372500572404848</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.174268708485916</v>
+        <v>-0.1056526323517595</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3168238631030755</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.494223946697796</v>
+        <v>-0.1040814766884565</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.267707051329381</v>
+        <v>-1.421233844397695</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1985484307859027</v>
+        <v>-0.1060008970581826</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3517319490057134</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5230548970876767</v>
+        <v>-0.1594165300864241</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.2872879447357</v>
+        <v>-1.467598184482052</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2076624754585489</v>
+        <v>-0.1408798208786971</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.389003025885139</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5222162561571481</v>
+        <v>-0.1410097339828444</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.360060630281895</v>
+        <v>-1.511919290299303</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2350052193971644</v>
+        <v>-0.1331838417794901</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4294314115629221</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5004402582352122</v>
+        <v>-0.09358047239688518</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.405801631434615</v>
+        <v>-1.532951184995606</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2532455071559918</v>
+        <v>-0.1655986860659424</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.47348714953301</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.488803581643536</v>
+        <v>-0.1350428800022181</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.43425870044965</v>
+        <v>-1.596443927445079</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2506069903083797</v>
+        <v>-0.1464179006235694</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5209761387975868</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4730908051691525</v>
+        <v>-0.1374002234178494</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.516746202535087</v>
+        <v>-1.694690559976333</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2592696936802323</v>
+        <v>-0.1364505769241527</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5723236650040414</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4376440451985856</v>
+        <v>-0.08092888779910021</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.59639696355297</v>
+        <v>-1.794277798155079</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2826003794071991</v>
+        <v>-0.1367183321012451</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6273044357342452</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.373870129317132</v>
+        <v>-0.07110916490345648</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.681003939990107</v>
+        <v>-1.89754407785597</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2947036453165875</v>
+        <v>-0.1686720763560758</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.685004774634799</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.339004623751506</v>
+        <v>-0.02914906202589709</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.804614733784605</v>
+        <v>-1.956367877524936</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3211778622115137</v>
+        <v>-0.1958562409187368</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7432537469180495</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2912185585696491</v>
+        <v>-0.005258469117675657</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.869332806873665</v>
+        <v>-2.024913812781266</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3170224726408292</v>
+        <v>-0.1831332956017723</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8002307724591052</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2952489144016003</v>
+        <v>-0.01513003527084297</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.935697055869268</v>
+        <v>-2.066283512443734</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3007735758915842</v>
+        <v>-0.1735117969260717</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8536640499571526</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2944060040263345</v>
+        <v>-0.02932776878418427</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.976311673733921</v>
+        <v>-2.094094065541415</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3318764808023514</v>
+        <v>-0.2002854848732812</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9009332979611762</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2762517150829285</v>
+        <v>-0.01942265699379581</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.065663833036158</v>
+        <v>-2.198103838547262</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3450336896411605</v>
+        <v>-0.221306400997403</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9396141142817099</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3110586682635867</v>
+        <v>-0.06718371542790598</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.125258572440534</v>
+        <v>-2.243386179351067</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3808000480463434</v>
+        <v>-0.257733303495504</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9678629408729011</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.2161452522307609</v>
+        <v>0.02698254777590343</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.159325691840297</v>
+        <v>-2.243160508700671</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4259347880463764</v>
+        <v>-0.2986919166218431</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9845675967882253</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1799861049097523</v>
+        <v>0.05508220327436321</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.250766829460396</v>
+        <v>-2.343104550475315</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4457639191681325</v>
+        <v>-0.3171401873314416</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9884580808339878</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1115188494207223</v>
+        <v>0.1104398237373704</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.24252863087956</v>
+        <v>-2.308217087765326</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4320632710063409</v>
+        <v>-0.3197329601282976</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9788009699374628</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.02856170841418871</v>
+        <v>0.1889738199961271</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.256503133425211</v>
+        <v>-2.306729491234737</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4368560276842272</v>
+        <v>-0.2970817260352282</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9561150909031045</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06707751322396727</v>
+        <v>0.292820134260605</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.231049313822485</v>
+        <v>-2.264210091096599</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4421733161441167</v>
+        <v>-0.327761955917009</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9212544860552536</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1922088392655988</v>
+        <v>0.4028181084707637</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.241807094718967</v>
+        <v>-2.251287701718339</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4147860479960987</v>
+        <v>-0.2881335797866574</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8755405924437549</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3799838981746699</v>
+        <v>0.5778049605504583</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.202969175785681</v>
+        <v>-2.157907016346181</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3964512225323753</v>
+        <v>-0.2763676000115107</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8200786891586842</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5224875948521165</v>
+        <v>0.6778569582848865</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.162949230580857</v>
+        <v>-2.168771533361094</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3926471472714977</v>
+        <v>-0.2855542252446899</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7564260436514265</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6954495102850075</v>
+        <v>0.843988372058876</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.101144748564622</v>
+        <v>-2.064435452793187</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3764067894117271</v>
+        <v>-0.282687598063974</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6857967710612863</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8474124667381396</v>
+        <v>0.9718606816218134</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.080331205470595</v>
+        <v>-2.087512411518627</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3229313841571644</v>
+        <v>-0.1940081812681902</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6090200525054394</v>
       </c>
       <c r="E83" t="n">
-        <v>1.059422723737795</v>
+        <v>1.143491140217363</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.965935093260406</v>
+        <v>-1.995724838954135</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3394455964007948</v>
+        <v>-0.2413404654665464</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5270786554860731</v>
       </c>
       <c r="E84" t="n">
-        <v>1.295765156215637</v>
+        <v>1.38865729512572</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.851434684614493</v>
+        <v>-1.88058523343899</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2857829454984704</v>
+        <v>-0.1883401884191705</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4422229841776754</v>
       </c>
       <c r="E85" t="n">
-        <v>1.459658771026638</v>
+        <v>1.551666524955436</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.707931327947857</v>
+        <v>-1.751813900798526</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2277605815987509</v>
+        <v>-0.1232262768109013</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.356499630722381</v>
       </c>
       <c r="E86" t="n">
-        <v>1.657143157188861</v>
+        <v>1.672349699501544</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.538392897273553</v>
+        <v>-1.585867292989591</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2391374319821325</v>
+        <v>-0.1621843501175067</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2723475102841902</v>
       </c>
       <c r="E87" t="n">
-        <v>1.828349110993395</v>
+        <v>1.827076816461698</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.393841696884263</v>
+        <v>-1.443678315381347</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.177326240838454</v>
+        <v>-0.08478968568291542</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1921065249268636</v>
       </c>
       <c r="E88" t="n">
-        <v>2.003293268625717</v>
+        <v>1.951858657955553</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.245439457341986</v>
+        <v>-1.321034245859493</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1826148630265364</v>
+        <v>-0.02579022885904553</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1191413556331906</v>
       </c>
       <c r="E89" t="n">
-        <v>2.107227411467647</v>
+        <v>2.033083014319446</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.078421218904005</v>
+        <v>-1.179269773042266</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1525049089775151</v>
+        <v>-0.007893936361904016</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05623174457659505</v>
       </c>
       <c r="E90" t="n">
-        <v>2.224946371524759</v>
+        <v>2.113540700392666</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9619721136958816</v>
+        <v>-1.113983863803154</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1280781957944321</v>
+        <v>-0.004668675823260286</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.00536812035253673</v>
       </c>
       <c r="E91" t="n">
-        <v>2.278486428371057</v>
+        <v>2.141276843167784</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7523704334487045</v>
+        <v>-0.8757049331766363</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1266955056202442</v>
+        <v>-0.03148505821784215</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03176761180547928</v>
       </c>
       <c r="E92" t="n">
-        <v>2.290109076787168</v>
+        <v>2.142925458757034</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6089018422606426</v>
+        <v>-0.7394510936738271</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08363205623844761</v>
+        <v>0.03125138259246309</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05443377091038257</v>
       </c>
       <c r="E93" t="n">
-        <v>2.279531832411003</v>
+        <v>2.136777458335413</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4180643716336195</v>
+        <v>-0.5180358598387169</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06264712543425392</v>
+        <v>0.05449667942468508</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06375367304303257</v>
       </c>
       <c r="E94" t="n">
-        <v>2.231071194960663</v>
+        <v>2.122111305742329</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2967517589491075</v>
+        <v>-0.3637344675109327</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07570979656816708</v>
+        <v>0.01399489688523029</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06218334967129179</v>
       </c>
       <c r="E95" t="n">
-        <v>2.135795486045849</v>
+        <v>2.029819938698843</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1423472900269529</v>
+        <v>-0.1856437291072673</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06982467195822507</v>
+        <v>0.0221416073645541</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05188116344107749</v>
       </c>
       <c r="E96" t="n">
-        <v>2.016412662382568</v>
+        <v>1.971221199759597</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0472014942162861</v>
+        <v>-0.02652640311588044</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06020805264793844</v>
+        <v>-0.00386967973672033</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03605528765931387</v>
       </c>
       <c r="E97" t="n">
-        <v>1.855485701743269</v>
+        <v>1.79926199391928</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07229721437557715</v>
+        <v>0.1384748276440949</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0763459438340153</v>
+        <v>0.0002369161798243444</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01606032983533553</v>
       </c>
       <c r="E98" t="n">
-        <v>1.64674522949166</v>
+        <v>1.641682277953975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110803946381389</v>
+        <v>0.2019382939010839</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09237038977421703</v>
+        <v>-0.05454737884703972</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.005890120361574425</v>
       </c>
       <c r="E99" t="n">
-        <v>1.430835139684878</v>
+        <v>1.472394524677814</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1539674227541724</v>
+        <v>0.2714369252544948</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1012788911787992</v>
+        <v>-0.07774205226309161</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03184766921983239</v>
       </c>
       <c r="E100" t="n">
-        <v>1.225250397014764</v>
+        <v>1.282514019592609</v>
       </c>
       <c r="F100" t="n">
-        <v>0.210125259145073</v>
+        <v>0.2812170033061499</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1307514781206188</v>
+        <v>-0.09181109251363906</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05996342655161847</v>
       </c>
       <c r="E101" t="n">
-        <v>1.062249096153845</v>
+        <v>1.16077507235505</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2439965940075997</v>
+        <v>0.3126590241131891</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1603594674526765</v>
+        <v>-0.1707512959431099</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09470517803953488</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9212445844998455</v>
+        <v>1.016665454535726</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2207195813001868</v>
+        <v>0.2807571231158819</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1792474909702104</v>
+        <v>-0.1846629766590564</v>
       </c>
     </row>
   </sheetData>
